--- a/Список игроков MID.xlsx
+++ b/Список игроков MID.xlsx
@@ -8,8 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
-    <sheet name="OG" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="4" r:id="rId3"/>
+    <sheet name="OG" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$I$1:$I$243</definedName>
+    <definedName name="Dota_Features___Snippets___Roles" localSheetId="1">Лист1!$A$1:$F$243</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,8 +25,25 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Dota Features &amp; Snippets - Roles" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="E:\Education materials\Diploma\dotaML\Dota Features &amp; Snippets - Roles.csv" decimal="," thousands=" " tab="0" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="445">
   <si>
     <t>Команда</t>
   </si>
@@ -161,13 +184,1207 @@
   </si>
   <si>
     <t>QO</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>team_id</t>
+  </si>
+  <si>
+    <t>player_id</t>
+  </si>
+  <si>
+    <t>team_name</t>
+  </si>
+  <si>
+    <t>player_name</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>compLexity Gaming</t>
+  </si>
+  <si>
+    <t>swindlezz</t>
+  </si>
+  <si>
+    <t>Zfreek</t>
+  </si>
+  <si>
+    <t>Moo</t>
+  </si>
+  <si>
+    <t>monkeys-forever</t>
+  </si>
+  <si>
+    <t>tae</t>
+  </si>
+  <si>
+    <t>canceL^^</t>
+  </si>
+  <si>
+    <t>EHOME</t>
+  </si>
+  <si>
+    <t>old LaNm</t>
+  </si>
+  <si>
+    <t>Sylar</t>
+  </si>
+  <si>
+    <t>old eLeVeN</t>
+  </si>
+  <si>
+    <t>old chicken</t>
+  </si>
+  <si>
+    <t>Garder</t>
+  </si>
+  <si>
+    <t>BurNIng</t>
+  </si>
+  <si>
+    <t>Xxs</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Op</t>
+  </si>
+  <si>
+    <t>BoBoKa</t>
+  </si>
+  <si>
+    <t>LGD-GAMING</t>
+  </si>
+  <si>
+    <t>Maybe.Rain</t>
+  </si>
+  <si>
+    <t>Victoria_JY.</t>
+  </si>
+  <si>
+    <t>XZ</t>
+  </si>
+  <si>
+    <t>Ame</t>
+  </si>
+  <si>
+    <t>Jixing</t>
+  </si>
+  <si>
+    <t>Signature.Dota2</t>
+  </si>
+  <si>
+    <t>LaKelz</t>
+  </si>
+  <si>
+    <t>aabBAA</t>
+  </si>
+  <si>
+    <t>MyPro</t>
+  </si>
+  <si>
+    <t>Boombell</t>
+  </si>
+  <si>
+    <t>tnt</t>
+  </si>
+  <si>
+    <t>GeneRaL</t>
+  </si>
+  <si>
+    <t>! SoNNeikO !</t>
+  </si>
+  <si>
+    <t>Ditya Ra</t>
+  </si>
+  <si>
+    <t>artstyle</t>
+  </si>
+  <si>
+    <t>Cr1t</t>
+  </si>
+  <si>
+    <t>zai</t>
+  </si>
+  <si>
+    <t>Arteezy</t>
+  </si>
+  <si>
+    <t>Universe</t>
+  </si>
+  <si>
+    <t>Sumail</t>
+  </si>
+  <si>
+    <t>Bulba</t>
+  </si>
+  <si>
+    <t>Love Yourself</t>
+  </si>
+  <si>
+    <t>MinD_ContRoL</t>
+  </si>
+  <si>
+    <t>MATUMBAMAN</t>
+  </si>
+  <si>
+    <t>KuroKy</t>
+  </si>
+  <si>
+    <t>EGM</t>
+  </si>
+  <si>
+    <t>Handsken</t>
+  </si>
+  <si>
+    <t>jonassomfan</t>
+  </si>
+  <si>
+    <t>Loda</t>
+  </si>
+  <si>
+    <t>DeMoN</t>
+  </si>
+  <si>
+    <t>MuShi</t>
+  </si>
+  <si>
+    <t>Ohaiyo</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>eyyou</t>
+  </si>
+  <si>
+    <t>Mineski.GGNetwork</t>
+  </si>
+  <si>
+    <t>Meracle</t>
+  </si>
+  <si>
+    <t>ninjaboogie</t>
+  </si>
+  <si>
+    <t>baski ft^mekasi</t>
+  </si>
+  <si>
+    <t>Julz*</t>
+  </si>
+  <si>
+    <t>Rr?</t>
+  </si>
+  <si>
+    <t>fy</t>
+  </si>
+  <si>
+    <t>ddc</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>KINGAO + 4</t>
+  </si>
+  <si>
+    <t>c4t</t>
+  </si>
+  <si>
+    <t>Kingrd</t>
+  </si>
+  <si>
+    <t>4dr ♥ Déia</t>
+  </si>
+  <si>
+    <t>hFn</t>
+  </si>
+  <si>
+    <t>tavo</t>
+  </si>
+  <si>
+    <t>Rex Regum QEON</t>
+  </si>
+  <si>
+    <t>KoaLa</t>
+  </si>
+  <si>
+    <t>Yabyooo</t>
+  </si>
+  <si>
+    <t>Xepher</t>
+  </si>
+  <si>
+    <t>Varizh</t>
+  </si>
+  <si>
+    <t>KelThuzard</t>
+  </si>
+  <si>
+    <t>MVP Phoenix</t>
+  </si>
+  <si>
+    <t>forev</t>
+  </si>
+  <si>
+    <t>Velo</t>
+  </si>
+  <si>
+    <t>Febby</t>
+  </si>
+  <si>
+    <t>Dubu</t>
+  </si>
+  <si>
+    <t>EHOME.X</t>
+  </si>
+  <si>
+    <t>zExBinGo</t>
+  </si>
+  <si>
+    <t>DDR</t>
+  </si>
+  <si>
+    <t>Puer tea</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>JUST</t>
+  </si>
+  <si>
+    <t>The Mongolz</t>
+  </si>
+  <si>
+    <t>Masquerade</t>
+  </si>
+  <si>
+    <t>Ariuka</t>
+  </si>
+  <si>
+    <t>Retribution</t>
+  </si>
+  <si>
+    <t>Sanke</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>kpii</t>
+  </si>
+  <si>
+    <t>uuu9</t>
+  </si>
+  <si>
+    <t>kaka</t>
+  </si>
+  <si>
+    <t>Sccc丶</t>
+  </si>
+  <si>
+    <t>CDEC Gaming</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Demons</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Shade</t>
+  </si>
+  <si>
+    <t>Flyby</t>
+  </si>
+  <si>
+    <t>the wings gaming</t>
+  </si>
+  <si>
+    <t>跳刀跳刀丶</t>
+  </si>
+  <si>
+    <t>iceice</t>
+  </si>
+  <si>
+    <t>y`</t>
+  </si>
+  <si>
+    <t>Faith_Bian</t>
+  </si>
+  <si>
+    <t>shadow</t>
+  </si>
+  <si>
+    <t>pieliedie</t>
+  </si>
+  <si>
+    <t>Puppey</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Virtus.pro</t>
+  </si>
+  <si>
+    <t>9Pasha</t>
+  </si>
+  <si>
+    <t>Lil</t>
+  </si>
+  <si>
+    <t>RAMZES666</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>CeMaTheSlayeR</t>
+  </si>
+  <si>
+    <t>fng</t>
+  </si>
+  <si>
+    <t>TNC Pro Team</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>Teehee</t>
+  </si>
+  <si>
+    <t>RyOyr</t>
+  </si>
+  <si>
+    <t>KUKU^</t>
+  </si>
+  <si>
+    <t>SamH</t>
+  </si>
+  <si>
+    <t>MoonMeander</t>
+  </si>
+  <si>
+    <t>Resolut1on</t>
+  </si>
+  <si>
+    <t>MiSeRy</t>
+  </si>
+  <si>
+    <t>Saksa</t>
+  </si>
+  <si>
+    <t>The Imperial</t>
+  </si>
+  <si>
+    <t>NoiA</t>
+  </si>
+  <si>
+    <t>Ryze</t>
+  </si>
+  <si>
+    <t>Babyknight</t>
+  </si>
+  <si>
+    <t>HeStEJoE-RoTTeN</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>Elements Pro Gaming</t>
+  </si>
+  <si>
+    <t>LeBronDota</t>
+  </si>
+  <si>
+    <t>g0g1</t>
+  </si>
+  <si>
+    <t>Swiftending</t>
+  </si>
+  <si>
+    <t>Mitch</t>
+  </si>
+  <si>
+    <t>cole</t>
+  </si>
+  <si>
+    <t>Fantastic Five</t>
+  </si>
+  <si>
+    <t>IllidanSTR SF46</t>
+  </si>
+  <si>
+    <t>Yol</t>
+  </si>
+  <si>
+    <t>rmN-</t>
+  </si>
+  <si>
+    <t>L0lik_O</t>
+  </si>
+  <si>
+    <t>Prodota GaminG</t>
+  </si>
+  <si>
+    <t>Kefka</t>
+  </si>
+  <si>
+    <t>Pingvincek</t>
+  </si>
+  <si>
+    <t>ComeWithMe</t>
+  </si>
+  <si>
+    <t>Garter</t>
+  </si>
+  <si>
+    <t>Biver</t>
+  </si>
+  <si>
+    <t>OG Dota2</t>
+  </si>
+  <si>
+    <t>n0tail</t>
+  </si>
+  <si>
+    <t>JerAx</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>EHOME.KEEN</t>
+  </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>QD</t>
+  </si>
+  <si>
+    <t>JDH</t>
+  </si>
+  <si>
+    <t>佞臣</t>
+  </si>
+  <si>
+    <t>zhizhizhi</t>
+  </si>
+  <si>
+    <t>iG.Vitality</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>@dogf1ghts</t>
+  </si>
+  <si>
+    <t>InJuly</t>
+  </si>
+  <si>
+    <t>Paparazi灬</t>
+  </si>
+  <si>
+    <t>Team AD FINEM</t>
+  </si>
+  <si>
+    <t>Skylark</t>
+  </si>
+  <si>
+    <t>Maybe Next Time</t>
+  </si>
+  <si>
+    <t>SsaSpartan</t>
+  </si>
+  <si>
+    <t>Madara</t>
+  </si>
+  <si>
+    <t>ThuG.</t>
+  </si>
+  <si>
+    <t>xNova-</t>
+  </si>
+  <si>
+    <t>KanGaroo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ah fu </t>
+  </si>
+  <si>
+    <t>Ah Jit</t>
+  </si>
+  <si>
+    <t>Infamous -_^</t>
+  </si>
+  <si>
+    <t>Kotarō.sr4ever</t>
+  </si>
+  <si>
+    <t>12시 30분 (1230)</t>
+  </si>
+  <si>
+    <t>kiNG</t>
+  </si>
+  <si>
+    <t>SUPER BENJAZ</t>
+  </si>
+  <si>
+    <t>kingteka</t>
+  </si>
+  <si>
+    <t>Friendship, Dedication, Love</t>
+  </si>
+  <si>
+    <t>MJW</t>
+  </si>
+  <si>
+    <t>Stan King</t>
+  </si>
+  <si>
+    <t>Beesa</t>
+  </si>
+  <si>
+    <t>Team Freedom Dota 2</t>
+  </si>
+  <si>
+    <t>WwD</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>ixmike88</t>
+  </si>
+  <si>
+    <t>monk</t>
+  </si>
+  <si>
+    <t>Jubei</t>
+  </si>
+  <si>
+    <t>Escape Gaming</t>
+  </si>
+  <si>
+    <t>syndereN</t>
+  </si>
+  <si>
+    <t>qojqva</t>
+  </si>
+  <si>
+    <t>YapzOr</t>
+  </si>
+  <si>
+    <t>Era</t>
+  </si>
+  <si>
+    <t>KheZu</t>
+  </si>
+  <si>
+    <t>team_ftd_a</t>
+  </si>
+  <si>
+    <t>prettyhaw</t>
+  </si>
+  <si>
+    <t>xiaofu</t>
+  </si>
+  <si>
+    <t>Sola</t>
+  </si>
+  <si>
+    <t>Oohyo</t>
+  </si>
+  <si>
+    <t>Fire Dragoon</t>
+  </si>
+  <si>
+    <t>yaNG</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>BrayaNt`</t>
+  </si>
+  <si>
+    <t>xiaNG</t>
+  </si>
+  <si>
+    <t>Team NP</t>
+  </si>
+  <si>
+    <t>Aui_2000</t>
+  </si>
+  <si>
+    <t>EternaLEnVy</t>
+  </si>
+  <si>
+    <t>SVG</t>
+  </si>
+  <si>
+    <t>MSS</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Team VG.J</t>
+  </si>
+  <si>
+    <t>qwer</t>
+  </si>
+  <si>
+    <t>rOtk</t>
+  </si>
+  <si>
+    <t>Fenrir</t>
+  </si>
+  <si>
+    <t>孙正</t>
+  </si>
+  <si>
+    <t>hym</t>
+  </si>
+  <si>
+    <t>Faceless</t>
+  </si>
+  <si>
+    <t>brown rice</t>
+  </si>
+  <si>
+    <t>金闪闪</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>NutZ</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>LGD.Forever Young</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>Yao</t>
+  </si>
+  <si>
+    <t>Xiao8</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t>Monet</t>
+  </si>
+  <si>
+    <t>Chappie</t>
+  </si>
+  <si>
+    <t>Ghostik</t>
+  </si>
+  <si>
+    <t>ALWAYSWANNAFLY</t>
+  </si>
+  <si>
+    <t>KingR</t>
+  </si>
+  <si>
+    <t>Horde</t>
+  </si>
+  <si>
+    <t>Gorgc</t>
+  </si>
+  <si>
+    <t>Xcalibur</t>
+  </si>
+  <si>
+    <t>Eskillz</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Akke</t>
+  </si>
+  <si>
+    <t>F.R.I.E.N.D.S.</t>
+  </si>
+  <si>
+    <t>ALOHADANCE</t>
+  </si>
+  <si>
+    <t>yoky-</t>
+  </si>
+  <si>
+    <t>AfterLife</t>
+  </si>
+  <si>
+    <t>Bignum</t>
+  </si>
+  <si>
+    <t>NoFear</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>assists</t>
+  </si>
+  <si>
+    <t>attack_type_x</t>
+  </si>
+  <si>
+    <t>buyback_log</t>
+  </si>
+  <si>
+    <t>camps_stacked</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>creeps_stacked</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>first_blood_time</t>
+  </si>
+  <si>
+    <t>gold_per_min</t>
+  </si>
+  <si>
+    <t>gold_spent</t>
+  </si>
+  <si>
+    <t>hero_damage</t>
+  </si>
+  <si>
+    <t>hero_healing</t>
+  </si>
+  <si>
+    <t>hero_id</t>
+  </si>
+  <si>
+    <t>kills_log</t>
+  </si>
+  <si>
+    <t>leagueid</t>
+  </si>
+  <si>
+    <t>leaguename</t>
+  </si>
+  <si>
+    <t>localized_name_x</t>
+  </si>
+  <si>
+    <t>match_id</t>
+  </si>
+  <si>
+    <t>obs_log</t>
+  </si>
+  <si>
+    <t>ping_log</t>
+  </si>
+  <si>
+    <t>player_slot</t>
+  </si>
+  <si>
+    <t>primary_attr_x</t>
+  </si>
+  <si>
+    <t>purchase_log</t>
+  </si>
+  <si>
+    <t>role_log</t>
+  </si>
+  <si>
+    <t>runes_log</t>
+  </si>
+  <si>
+    <t>sen_log</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>stuns</t>
+  </si>
+  <si>
+    <t>t_experience_cnt_10</t>
+  </si>
+  <si>
+    <t>t_experience_cnt_12</t>
+  </si>
+  <si>
+    <t>t_experience_cnt_15</t>
+  </si>
+  <si>
+    <t>t_experience_cnt_20</t>
+  </si>
+  <si>
+    <t>t_experience_cnt_25</t>
+  </si>
+  <si>
+    <t>t_experience_cnt_3</t>
+  </si>
+  <si>
+    <t>t_experience_cnt_30</t>
+  </si>
+  <si>
+    <t>t_experience_cnt_5</t>
+  </si>
+  <si>
+    <t>t_experience_cnt_8</t>
+  </si>
+  <si>
+    <t>t_gold_cnt_10</t>
+  </si>
+  <si>
+    <t>t_gold_cnt_12</t>
+  </si>
+  <si>
+    <t>t_gold_cnt_15</t>
+  </si>
+  <si>
+    <t>t_gold_cnt_20</t>
+  </si>
+  <si>
+    <t>t_gold_cnt_25</t>
+  </si>
+  <si>
+    <t>t_gold_cnt_3</t>
+  </si>
+  <si>
+    <t>t_gold_cnt_30</t>
+  </si>
+  <si>
+    <t>t_gold_cnt_5</t>
+  </si>
+  <si>
+    <t>t_gold_cnt_8</t>
+  </si>
+  <si>
+    <t>t_lasthits_cnt_10</t>
+  </si>
+  <si>
+    <t>t_lasthits_cnt_12</t>
+  </si>
+  <si>
+    <t>t_lasthits_cnt_15</t>
+  </si>
+  <si>
+    <t>t_lasthits_cnt_20</t>
+  </si>
+  <si>
+    <t>t_lasthits_cnt_25</t>
+  </si>
+  <si>
+    <t>t_lasthits_cnt_3</t>
+  </si>
+  <si>
+    <t>t_lasthits_cnt_30</t>
+  </si>
+  <si>
+    <t>t_lasthits_cnt_5</t>
+  </si>
+  <si>
+    <t>t_lasthits_cnt_8</t>
+  </si>
+  <si>
+    <t>tower_damage</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>xp_per_min</t>
+  </si>
+  <si>
+    <t>id_x</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>t_item_aether_lens</t>
+  </si>
+  <si>
+    <t>t_item_arcane_boots</t>
+  </si>
+  <si>
+    <t>t_item_black_king_bar</t>
+  </si>
+  <si>
+    <t>t_item_blade_mail</t>
+  </si>
+  <si>
+    <t>t_item_blink</t>
+  </si>
+  <si>
+    <t>t_item_boots</t>
+  </si>
+  <si>
+    <t>t_item_bottle</t>
+  </si>
+  <si>
+    <t>t_item_desolator</t>
+  </si>
+  <si>
+    <t>t_item_echo_sabre</t>
+  </si>
+  <si>
+    <t>t_item_force_staff</t>
+  </si>
+  <si>
+    <t>t_item_hand_of_midas</t>
+  </si>
+  <si>
+    <t>t_item_hurricane_pike</t>
+  </si>
+  <si>
+    <t>t_item_invis_sword</t>
+  </si>
+  <si>
+    <t>t_item_magic_wand</t>
+  </si>
+  <si>
+    <t>t_item_manta</t>
+  </si>
+  <si>
+    <t>t_item_phase_boots</t>
+  </si>
+  <si>
+    <t>t_item_power_treads</t>
+  </si>
+  <si>
+    <t>t_item_ring_of_aquila</t>
+  </si>
+  <si>
+    <t>t_item_silver_edge</t>
+  </si>
+  <si>
+    <t>t_item_sphere</t>
+  </si>
+  <si>
+    <t>t_item_tranquil_boots</t>
+  </si>
+  <si>
+    <t>t_item_travel_boots</t>
+  </si>
+  <si>
+    <t>t_item_ultimate_scepter</t>
+  </si>
+  <si>
+    <t>t_item_wind_lace</t>
+  </si>
+  <si>
+    <t>t_first_kill</t>
+  </si>
+  <si>
+    <t>t_sen_cnt_5</t>
+  </si>
+  <si>
+    <t>t_sen_cnt_10</t>
+  </si>
+  <si>
+    <t>t_sen_cnt_12</t>
+  </si>
+  <si>
+    <t>t_sen_cnt_15</t>
+  </si>
+  <si>
+    <t>t_sen_cnt_25</t>
+  </si>
+  <si>
+    <t>t_sen_cnt_3</t>
+  </si>
+  <si>
+    <t>t_sen_cnt_20</t>
+  </si>
+  <si>
+    <t>t_sen_cnt_30</t>
+  </si>
+  <si>
+    <t>t_sen_cnt_8</t>
+  </si>
+  <si>
+    <t>t_obs_cnt_15</t>
+  </si>
+  <si>
+    <t>t_obs_cnt_8</t>
+  </si>
+  <si>
+    <t>t_obs_cnt_25</t>
+  </si>
+  <si>
+    <t>t_obs_cnt_10</t>
+  </si>
+  <si>
+    <t>t_obs_cnt_12</t>
+  </si>
+  <si>
+    <t>t_obs_cnt_20</t>
+  </si>
+  <si>
+    <t>t_obs_cnt_3</t>
+  </si>
+  <si>
+    <t>t_obs_cnt_5</t>
+  </si>
+  <si>
+    <t>t_obs_cnt_30</t>
+  </si>
+  <si>
+    <t>t_runes_cnt_3</t>
+  </si>
+  <si>
+    <t>t_runes_cnt_10</t>
+  </si>
+  <si>
+    <t>t_runes_cnt_12</t>
+  </si>
+  <si>
+    <t>t_runes_cnt_5</t>
+  </si>
+  <si>
+    <t>t_runes_cnt_15</t>
+  </si>
+  <si>
+    <t>t_runes_cnt_20</t>
+  </si>
+  <si>
+    <t>t_runes_cnt_8</t>
+  </si>
+  <si>
+    <t>t_runes_cnt_30</t>
+  </si>
+  <si>
+    <t>t_runes_cnt_25</t>
+  </si>
+  <si>
+    <t>t_buyback_cnt_3</t>
+  </si>
+  <si>
+    <t>t_buyback_cnt_10</t>
+  </si>
+  <si>
+    <t>t_buyback_cnt_12</t>
+  </si>
+  <si>
+    <t>t_buyback_cnt_5</t>
+  </si>
+  <si>
+    <t>t_buyback_cnt_25</t>
+  </si>
+  <si>
+    <t>t_buyback_cnt_15</t>
+  </si>
+  <si>
+    <t>t_buyback_cnt_8</t>
+  </si>
+  <si>
+    <t>t_buyback_cnt_30</t>
+  </si>
+  <si>
+    <t>t_buyback_cnt_20</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>Disabler</t>
+  </si>
+  <si>
+    <t>Durable</t>
+  </si>
+  <si>
+    <t>Escape</t>
+  </si>
+  <si>
+    <t>Initiator</t>
+  </si>
+  <si>
+    <t>Jungler</t>
+  </si>
+  <si>
+    <t>Nuker</t>
+  </si>
+  <si>
+    <t>Pusher</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>attack_type_y</t>
+  </si>
+  <si>
+    <t>id_y</t>
+  </si>
+  <si>
+    <t>localized_name_y</t>
+  </si>
+  <si>
+    <t>primary_attr_y</t>
+  </si>
+  <si>
+    <t>pro_ban</t>
+  </si>
+  <si>
+    <t>pro_pick</t>
+  </si>
+  <si>
+    <t>pro_win</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +1398,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,11 +1427,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -224,6 +1451,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Dota Features &amp; Snippets - Roles" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,7 +1723,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C2" sqref="C2:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,6 +1996,6102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I243"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>265</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>49317728</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>268</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>50828662</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>269</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>84429681</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>266</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>86811043</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>671</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>99643683</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>267</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>141690233</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>181</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>89423756</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>180</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>108382060</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>183</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>134276083</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>184</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>135878232</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>182</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>142750189</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>724</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>90892734</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>722</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>129958758</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>720</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>140153524</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>721</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>205813150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>723</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>207829314</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>262</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>106863163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>264</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>107081378</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>260</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>131237305</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>263</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>177416702</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>261</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>221651179</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1214</v>
+      </c>
+      <c r="B23">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>91191397</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1212</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>91191651</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1213</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>101208242</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1211</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>101460882</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1210</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>113938016</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>985</v>
+      </c>
+      <c r="B28">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>70388657</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>989</v>
+      </c>
+      <c r="B29">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>89550641</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>987</v>
+      </c>
+      <c r="B30">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>117421467</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>988</v>
+      </c>
+      <c r="B31">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>169181898</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>986</v>
+      </c>
+      <c r="B32">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>176184718</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>25907144</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>63</v>
+      </c>
+      <c r="B34">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>73562326</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>86745912</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>87276347</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>111620041</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>863</v>
+      </c>
+      <c r="B38">
+        <v>2163</v>
+      </c>
+      <c r="C38">
+        <v>30237211</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1973</v>
+      </c>
+      <c r="B39">
+        <v>2163</v>
+      </c>
+      <c r="C39">
+        <v>30237211</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>861</v>
+      </c>
+      <c r="B40">
+        <v>2163</v>
+      </c>
+      <c r="C40">
+        <v>34505203</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>864</v>
+      </c>
+      <c r="B41">
+        <v>2163</v>
+      </c>
+      <c r="C41">
+        <v>72312627</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>860</v>
+      </c>
+      <c r="B42">
+        <v>2163</v>
+      </c>
+      <c r="C42">
+        <v>82262664</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>862</v>
+      </c>
+      <c r="B43">
+        <v>2163</v>
+      </c>
+      <c r="C43">
+        <v>105248644</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1030</v>
+      </c>
+      <c r="B44">
+        <v>111474</v>
+      </c>
+      <c r="C44">
+        <v>3916428</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>111474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1031</v>
+      </c>
+      <c r="B45">
+        <v>111474</v>
+      </c>
+      <c r="C45">
+        <v>12231202</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>111474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1034</v>
+      </c>
+      <c r="B46">
+        <v>111474</v>
+      </c>
+      <c r="C46">
+        <v>18180970</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>111474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1033</v>
+      </c>
+      <c r="B47">
+        <v>111474</v>
+      </c>
+      <c r="C47">
+        <v>40209325</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>111474</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1032</v>
+      </c>
+      <c r="B48">
+        <v>111474</v>
+      </c>
+      <c r="C48">
+        <v>101495620</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>111474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>601</v>
+      </c>
+      <c r="B49">
+        <v>350190</v>
+      </c>
+      <c r="C49">
+        <v>85805514</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>350190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>600</v>
+      </c>
+      <c r="B50">
+        <v>350190</v>
+      </c>
+      <c r="C50">
+        <v>89871557</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>350190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>604</v>
+      </c>
+      <c r="B51">
+        <v>350190</v>
+      </c>
+      <c r="C51">
+        <v>93616251</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>350190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>603</v>
+      </c>
+      <c r="B52">
+        <v>350190</v>
+      </c>
+      <c r="C52">
+        <v>132309493</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>350190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>602</v>
+      </c>
+      <c r="B53">
+        <v>350190</v>
+      </c>
+      <c r="C53">
+        <v>173476224</v>
+      </c>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>350190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>561</v>
+      </c>
+      <c r="B54">
+        <v>543897</v>
+      </c>
+      <c r="C54">
+        <v>91369376</v>
+      </c>
+      <c r="D54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>543897</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>562</v>
+      </c>
+      <c r="B55">
+        <v>543897</v>
+      </c>
+      <c r="C55">
+        <v>91443418</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>543897</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>560</v>
+      </c>
+      <c r="B56">
+        <v>543897</v>
+      </c>
+      <c r="C56">
+        <v>192914280</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>543897</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>564</v>
+      </c>
+      <c r="B57">
+        <v>543897</v>
+      </c>
+      <c r="C57">
+        <v>256269737</v>
+      </c>
+      <c r="D57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>543897</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>563</v>
+      </c>
+      <c r="B58">
+        <v>543897</v>
+      </c>
+      <c r="C58">
+        <v>323792491</v>
+      </c>
+      <c r="D58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>543897</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>754</v>
+      </c>
+      <c r="B59">
+        <v>726228</v>
+      </c>
+      <c r="C59">
+        <v>101695162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>726228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>753</v>
+      </c>
+      <c r="B60">
+        <v>726228</v>
+      </c>
+      <c r="C60">
+        <v>114239371</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>726228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>752</v>
+      </c>
+      <c r="B61">
+        <v>726228</v>
+      </c>
+      <c r="C61">
+        <v>139280377</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>726228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>750</v>
+      </c>
+      <c r="B62">
+        <v>726228</v>
+      </c>
+      <c r="C62">
+        <v>139937922</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>726228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>751</v>
+      </c>
+      <c r="B63">
+        <v>726228</v>
+      </c>
+      <c r="C63">
+        <v>186977347</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>726228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>962</v>
+      </c>
+      <c r="B64">
+        <v>1061269</v>
+      </c>
+      <c r="C64">
+        <v>37658157</v>
+      </c>
+      <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>1061269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>960</v>
+      </c>
+      <c r="B65">
+        <v>1061269</v>
+      </c>
+      <c r="C65">
+        <v>84853828</v>
+      </c>
+      <c r="D65" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>1061269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>961</v>
+      </c>
+      <c r="B66">
+        <v>1061269</v>
+      </c>
+      <c r="C66">
+        <v>85937380</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>1061269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>964</v>
+      </c>
+      <c r="B67">
+        <v>1061269</v>
+      </c>
+      <c r="C67">
+        <v>94004717</v>
+      </c>
+      <c r="D67" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1061269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>963</v>
+      </c>
+      <c r="B68">
+        <v>1061269</v>
+      </c>
+      <c r="C68">
+        <v>117956848</v>
+      </c>
+      <c r="D68" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>1061269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1215</v>
+      </c>
+      <c r="B69">
+        <v>1105664</v>
+      </c>
+      <c r="C69">
+        <v>90547237</v>
+      </c>
+      <c r="D69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>1105664</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1219</v>
+      </c>
+      <c r="B70">
+        <v>1105664</v>
+      </c>
+      <c r="C70">
+        <v>119939006</v>
+      </c>
+      <c r="D70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>1105664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1217</v>
+      </c>
+      <c r="B71">
+        <v>1105664</v>
+      </c>
+      <c r="C71">
+        <v>121404228</v>
+      </c>
+      <c r="D71" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>1105664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1216</v>
+      </c>
+      <c r="B72">
+        <v>1105664</v>
+      </c>
+      <c r="C72">
+        <v>169141480</v>
+      </c>
+      <c r="D72" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>1105664</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1218</v>
+      </c>
+      <c r="B73">
+        <v>1105664</v>
+      </c>
+      <c r="C73">
+        <v>250733860</v>
+      </c>
+      <c r="D73" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1105664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>457</v>
+      </c>
+      <c r="B74">
+        <v>1148284</v>
+      </c>
+      <c r="C74">
+        <v>88933594</v>
+      </c>
+      <c r="D74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>1148284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>455</v>
+      </c>
+      <c r="B75">
+        <v>1148284</v>
+      </c>
+      <c r="C75">
+        <v>93119769</v>
+      </c>
+      <c r="D75" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>1148284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>456</v>
+      </c>
+      <c r="B76">
+        <v>1148284</v>
+      </c>
+      <c r="C76">
+        <v>110539311</v>
+      </c>
+      <c r="D76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1148284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>458</v>
+      </c>
+      <c r="B77">
+        <v>1148284</v>
+      </c>
+      <c r="C77">
+        <v>112377459</v>
+      </c>
+      <c r="D77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>1148284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>459</v>
+      </c>
+      <c r="B78">
+        <v>1148284</v>
+      </c>
+      <c r="C78">
+        <v>145550466</v>
+      </c>
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" t="s">
+        <v>133</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>1148284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>784</v>
+      </c>
+      <c r="B79">
+        <v>1272244</v>
+      </c>
+      <c r="C79">
+        <v>93289364</v>
+      </c>
+      <c r="D79" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>1272244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>782</v>
+      </c>
+      <c r="B80">
+        <v>1272244</v>
+      </c>
+      <c r="C80">
+        <v>133084797</v>
+      </c>
+      <c r="D80" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>1272244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>781</v>
+      </c>
+      <c r="B81">
+        <v>1272244</v>
+      </c>
+      <c r="C81">
+        <v>134683396</v>
+      </c>
+      <c r="D81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1272244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>780</v>
+      </c>
+      <c r="B82">
+        <v>1272244</v>
+      </c>
+      <c r="C82">
+        <v>151550803</v>
+      </c>
+      <c r="D82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>1272244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>783</v>
+      </c>
+      <c r="B83">
+        <v>1272244</v>
+      </c>
+      <c r="C83">
+        <v>194673410</v>
+      </c>
+      <c r="D83" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>1272244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1242</v>
+      </c>
+      <c r="B84">
+        <v>1276785</v>
+      </c>
+      <c r="C84">
+        <v>39256913</v>
+      </c>
+      <c r="D84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" t="s">
+        <v>141</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>1276785</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1241</v>
+      </c>
+      <c r="B85">
+        <v>1276785</v>
+      </c>
+      <c r="C85">
+        <v>86992358</v>
+      </c>
+      <c r="D85" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85" t="s">
+        <v>142</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>1276785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1243</v>
+      </c>
+      <c r="B86">
+        <v>1276785</v>
+      </c>
+      <c r="C86">
+        <v>106204137</v>
+      </c>
+      <c r="D86" t="s">
+        <v>140</v>
+      </c>
+      <c r="E86" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1276785</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1244</v>
+      </c>
+      <c r="B87">
+        <v>1276785</v>
+      </c>
+      <c r="C87">
+        <v>113272381</v>
+      </c>
+      <c r="D87" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>1276785</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1240</v>
+      </c>
+      <c r="B88">
+        <v>1276785</v>
+      </c>
+      <c r="C88">
+        <v>196228187</v>
+      </c>
+      <c r="D88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" t="s">
+        <v>145</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>1276785</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>397</v>
+      </c>
+      <c r="B89">
+        <v>1375614</v>
+      </c>
+      <c r="C89">
+        <v>82327674</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>146</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>1375614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>399</v>
+      </c>
+      <c r="B90">
+        <v>1375614</v>
+      </c>
+      <c r="C90">
+        <v>87012746</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>147</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>1375614</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>398</v>
+      </c>
+      <c r="B91">
+        <v>1375614</v>
+      </c>
+      <c r="C91">
+        <v>117281554</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1375614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>395</v>
+      </c>
+      <c r="B92">
+        <v>1375614</v>
+      </c>
+      <c r="C92">
+        <v>139876032</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>149</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>1375614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>396</v>
+      </c>
+      <c r="B93">
+        <v>1375614</v>
+      </c>
+      <c r="C93">
+        <v>149486894</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>150</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>1375614</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>786</v>
+      </c>
+      <c r="B94">
+        <v>1520578</v>
+      </c>
+      <c r="C94">
+        <v>89598554</v>
+      </c>
+      <c r="D94" t="s">
+        <v>151</v>
+      </c>
+      <c r="E94" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>1520578</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>789</v>
+      </c>
+      <c r="B95">
+        <v>1520578</v>
+      </c>
+      <c r="C95">
+        <v>131043881</v>
+      </c>
+      <c r="D95" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>1520578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>785</v>
+      </c>
+      <c r="B96">
+        <v>1520578</v>
+      </c>
+      <c r="C96">
+        <v>138885864</v>
+      </c>
+      <c r="D96" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" t="s">
+        <v>154</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>1520578</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>787</v>
+      </c>
+      <c r="B97">
+        <v>1520578</v>
+      </c>
+      <c r="C97">
+        <v>139822354</v>
+      </c>
+      <c r="D97" t="s">
+        <v>151</v>
+      </c>
+      <c r="E97" t="s">
+        <v>155</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>1520578</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>788</v>
+      </c>
+      <c r="B98">
+        <v>1520578</v>
+      </c>
+      <c r="C98">
+        <v>186627166</v>
+      </c>
+      <c r="D98" t="s">
+        <v>151</v>
+      </c>
+      <c r="E98" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1520578</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>411</v>
+      </c>
+      <c r="B99">
+        <v>1836806</v>
+      </c>
+      <c r="C99">
+        <v>101586543</v>
+      </c>
+      <c r="D99" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" t="s">
+        <v>158</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>1836806</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>413</v>
+      </c>
+      <c r="B100">
+        <v>1836806</v>
+      </c>
+      <c r="C100">
+        <v>102644565</v>
+      </c>
+      <c r="D100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" t="s">
+        <v>159</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <v>1836806</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>414</v>
+      </c>
+      <c r="B101">
+        <v>1836806</v>
+      </c>
+      <c r="C101">
+        <v>111114687</v>
+      </c>
+      <c r="D101" t="s">
+        <v>157</v>
+      </c>
+      <c r="E101" t="s">
+        <v>160</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>1836806</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>412</v>
+      </c>
+      <c r="B102">
+        <v>1836806</v>
+      </c>
+      <c r="C102">
+        <v>118134220</v>
+      </c>
+      <c r="D102" t="s">
+        <v>157</v>
+      </c>
+      <c r="E102" t="s">
+        <v>161</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>1836806</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>410</v>
+      </c>
+      <c r="B103">
+        <v>1836806</v>
+      </c>
+      <c r="C103">
+        <v>129585121</v>
+      </c>
+      <c r="D103" t="s">
+        <v>157</v>
+      </c>
+      <c r="E103" t="s">
+        <v>162</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1836806</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>736</v>
+      </c>
+      <c r="B104">
+        <v>1838315</v>
+      </c>
+      <c r="C104">
+        <v>6922000</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>163</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="I104">
+        <v>1838315</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>735</v>
+      </c>
+      <c r="B105">
+        <v>1838315</v>
+      </c>
+      <c r="C105">
+        <v>87278757</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>164</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <v>1838315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>737</v>
+      </c>
+      <c r="B106">
+        <v>1838315</v>
+      </c>
+      <c r="C106">
+        <v>88933594</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>130</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="I106">
+        <v>1838315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>738</v>
+      </c>
+      <c r="B107">
+        <v>1838315</v>
+      </c>
+      <c r="C107">
+        <v>101450083</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" t="s">
+        <v>165</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1838315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>739</v>
+      </c>
+      <c r="B108">
+        <v>1838315</v>
+      </c>
+      <c r="C108">
+        <v>116585378</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>1838315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>163</v>
+      </c>
+      <c r="B109">
+        <v>1883502</v>
+      </c>
+      <c r="C109">
+        <v>92423451</v>
+      </c>
+      <c r="D109" t="s">
+        <v>166</v>
+      </c>
+      <c r="E109" t="s">
+        <v>167</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="I109">
+        <v>1883502</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>162</v>
+      </c>
+      <c r="B110">
+        <v>1883502</v>
+      </c>
+      <c r="C110">
+        <v>106573901</v>
+      </c>
+      <c r="D110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>1883502</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>164</v>
+      </c>
+      <c r="B111">
+        <v>1883502</v>
+      </c>
+      <c r="C111">
+        <v>106809101</v>
+      </c>
+      <c r="D111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E111" t="s">
+        <v>168</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="I111">
+        <v>1883502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>161</v>
+      </c>
+      <c r="B112">
+        <v>1883502</v>
+      </c>
+      <c r="C112">
+        <v>132851371</v>
+      </c>
+      <c r="D112" t="s">
+        <v>166</v>
+      </c>
+      <c r="E112" t="s">
+        <v>169</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1883502</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>160</v>
+      </c>
+      <c r="B113">
+        <v>1883502</v>
+      </c>
+      <c r="C113">
+        <v>134556694</v>
+      </c>
+      <c r="D113" t="s">
+        <v>166</v>
+      </c>
+      <c r="E113" t="s">
+        <v>170</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+      <c r="I113">
+        <v>1883502</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>948</v>
+      </c>
+      <c r="B114">
+        <v>2006913</v>
+      </c>
+      <c r="C114">
+        <v>5150808</v>
+      </c>
+      <c r="D114" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>2006913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>949</v>
+      </c>
+      <c r="B115">
+        <v>2006913</v>
+      </c>
+      <c r="C115">
+        <v>86802844</v>
+      </c>
+      <c r="D115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" t="s">
+        <v>171</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>2006913</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>946</v>
+      </c>
+      <c r="B116">
+        <v>2006913</v>
+      </c>
+      <c r="C116">
+        <v>91460772</v>
+      </c>
+      <c r="D116" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" t="s">
+        <v>172</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+      <c r="I116">
+        <v>2006913</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>945</v>
+      </c>
+      <c r="B117">
+        <v>2006913</v>
+      </c>
+      <c r="C117">
+        <v>94049589</v>
+      </c>
+      <c r="D117" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" t="s">
+        <v>173</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="I117">
+        <v>2006913</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>947</v>
+      </c>
+      <c r="B118">
+        <v>2006913</v>
+      </c>
+      <c r="C118">
+        <v>250114507</v>
+      </c>
+      <c r="D118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>2006913</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1188</v>
+      </c>
+      <c r="B119">
+        <v>2108395</v>
+      </c>
+      <c r="C119">
+        <v>91162296</v>
+      </c>
+      <c r="D119" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119" t="s">
+        <v>175</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="I119">
+        <v>2108395</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1185</v>
+      </c>
+      <c r="B120">
+        <v>2108395</v>
+      </c>
+      <c r="C120">
+        <v>110759067</v>
+      </c>
+      <c r="D120" t="s">
+        <v>174</v>
+      </c>
+      <c r="E120" t="s">
+        <v>176</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+      <c r="I120">
+        <v>2108395</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1186</v>
+      </c>
+      <c r="B121">
+        <v>2108395</v>
+      </c>
+      <c r="C121">
+        <v>115102590</v>
+      </c>
+      <c r="D121" t="s">
+        <v>174</v>
+      </c>
+      <c r="E121" t="s">
+        <v>177</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>2108395</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1187</v>
+      </c>
+      <c r="B122">
+        <v>2108395</v>
+      </c>
+      <c r="C122">
+        <v>184950344</v>
+      </c>
+      <c r="D122" t="s">
+        <v>174</v>
+      </c>
+      <c r="E122" t="s">
+        <v>178</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>2108395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1189</v>
+      </c>
+      <c r="B123">
+        <v>2108395</v>
+      </c>
+      <c r="C123">
+        <v>187619311</v>
+      </c>
+      <c r="D123" t="s">
+        <v>174</v>
+      </c>
+      <c r="E123" t="s">
+        <v>179</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="I123">
+        <v>2108395</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>44</v>
+      </c>
+      <c r="B124">
+        <v>2512249</v>
+      </c>
+      <c r="C124">
+        <v>38628747</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s">
+        <v>180</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="I124">
+        <v>2512249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>43</v>
+      </c>
+      <c r="B125">
+        <v>2512249</v>
+      </c>
+      <c r="C125">
+        <v>86700461</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>2512249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>42</v>
+      </c>
+      <c r="B126">
+        <v>2512249</v>
+      </c>
+      <c r="C126">
+        <v>86725175</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>181</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>2512249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>40</v>
+      </c>
+      <c r="B127">
+        <v>2512249</v>
+      </c>
+      <c r="C127">
+        <v>87382579</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>182</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="I127">
+        <v>2512249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>41</v>
+      </c>
+      <c r="B128">
+        <v>2512249</v>
+      </c>
+      <c r="C128">
+        <v>103735745</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>183</v>
+      </c>
+      <c r="F128">
+        <v>5</v>
+      </c>
+      <c r="I128">
+        <v>2512249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>944</v>
+      </c>
+      <c r="B129">
+        <v>2533075</v>
+      </c>
+      <c r="C129">
+        <v>23883296</v>
+      </c>
+      <c r="D129" t="s">
+        <v>184</v>
+      </c>
+      <c r="E129" t="s">
+        <v>185</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="I129">
+        <v>2533075</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>943</v>
+      </c>
+      <c r="B130">
+        <v>2533075</v>
+      </c>
+      <c r="C130">
+        <v>26682464</v>
+      </c>
+      <c r="D130" t="s">
+        <v>184</v>
+      </c>
+      <c r="E130" t="s">
+        <v>186</v>
+      </c>
+      <c r="F130">
+        <v>5</v>
+      </c>
+      <c r="I130">
+        <v>2533075</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>941</v>
+      </c>
+      <c r="B131">
+        <v>2533075</v>
+      </c>
+      <c r="C131">
+        <v>42989814</v>
+      </c>
+      <c r="D131" t="s">
+        <v>184</v>
+      </c>
+      <c r="E131" t="s">
+        <v>187</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>2533075</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>942</v>
+      </c>
+      <c r="B132">
+        <v>2533075</v>
+      </c>
+      <c r="C132">
+        <v>43619695</v>
+      </c>
+      <c r="D132" t="s">
+        <v>184</v>
+      </c>
+      <c r="E132" t="s">
+        <v>188</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="I132">
+        <v>2533075</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>940</v>
+      </c>
+      <c r="B133">
+        <v>2533075</v>
+      </c>
+      <c r="C133">
+        <v>97590558</v>
+      </c>
+      <c r="D133" t="s">
+        <v>184</v>
+      </c>
+      <c r="E133" t="s">
+        <v>189</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>2533075</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>996</v>
+      </c>
+      <c r="B134">
+        <v>2537636</v>
+      </c>
+      <c r="C134">
+        <v>35504297</v>
+      </c>
+      <c r="D134" t="s">
+        <v>190</v>
+      </c>
+      <c r="E134" t="s">
+        <v>191</v>
+      </c>
+      <c r="F134">
+        <v>5</v>
+      </c>
+      <c r="I134">
+        <v>2537636</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>995</v>
+      </c>
+      <c r="B135">
+        <v>2537636</v>
+      </c>
+      <c r="C135">
+        <v>43401453</v>
+      </c>
+      <c r="D135" t="s">
+        <v>190</v>
+      </c>
+      <c r="E135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F135">
+        <v>4</v>
+      </c>
+      <c r="I135">
+        <v>2537636</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>997</v>
+      </c>
+      <c r="B136">
+        <v>2537636</v>
+      </c>
+      <c r="C136">
+        <v>86751819</v>
+      </c>
+      <c r="D136" t="s">
+        <v>190</v>
+      </c>
+      <c r="E136" t="s">
+        <v>193</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>2537636</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>999</v>
+      </c>
+      <c r="B137">
+        <v>2537636</v>
+      </c>
+      <c r="C137">
+        <v>90180366</v>
+      </c>
+      <c r="D137" t="s">
+        <v>190</v>
+      </c>
+      <c r="E137" t="s">
+        <v>194</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="I137">
+        <v>2537636</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>998</v>
+      </c>
+      <c r="B138">
+        <v>2537636</v>
+      </c>
+      <c r="C138">
+        <v>98172857</v>
+      </c>
+      <c r="D138" t="s">
+        <v>190</v>
+      </c>
+      <c r="E138" t="s">
+        <v>195</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>2537636</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>936</v>
+      </c>
+      <c r="B139">
+        <v>2538753</v>
+      </c>
+      <c r="C139">
+        <v>26316691</v>
+      </c>
+      <c r="D139" t="s">
+        <v>196</v>
+      </c>
+      <c r="E139" t="s">
+        <v>197</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>2538753</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>937</v>
+      </c>
+      <c r="B140">
+        <v>2538753</v>
+      </c>
+      <c r="C140">
+        <v>76600360</v>
+      </c>
+      <c r="D140" t="s">
+        <v>196</v>
+      </c>
+      <c r="E140" t="s">
+        <v>198</v>
+      </c>
+      <c r="F140">
+        <v>5</v>
+      </c>
+      <c r="I140">
+        <v>2538753</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>935</v>
+      </c>
+      <c r="B141">
+        <v>2538753</v>
+      </c>
+      <c r="C141">
+        <v>87197791</v>
+      </c>
+      <c r="D141" t="s">
+        <v>196</v>
+      </c>
+      <c r="E141" t="s">
+        <v>199</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
+      </c>
+      <c r="I141">
+        <v>2538753</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>939</v>
+      </c>
+      <c r="B142">
+        <v>2538753</v>
+      </c>
+      <c r="C142">
+        <v>91701543</v>
+      </c>
+      <c r="D142" t="s">
+        <v>196</v>
+      </c>
+      <c r="E142" t="s">
+        <v>200</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>2538753</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>938</v>
+      </c>
+      <c r="B143">
+        <v>2538753</v>
+      </c>
+      <c r="C143">
+        <v>96196828</v>
+      </c>
+      <c r="D143" t="s">
+        <v>196</v>
+      </c>
+      <c r="E143">
+        <v>633</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>2538753</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>925</v>
+      </c>
+      <c r="B144">
+        <v>2552670</v>
+      </c>
+      <c r="C144">
+        <v>31456357</v>
+      </c>
+      <c r="D144" t="s">
+        <v>201</v>
+      </c>
+      <c r="E144" t="s">
+        <v>202</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="I144">
+        <v>2552670</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>926</v>
+      </c>
+      <c r="B145">
+        <v>2552670</v>
+      </c>
+      <c r="C145">
+        <v>83867257</v>
+      </c>
+      <c r="D145" t="s">
+        <v>201</v>
+      </c>
+      <c r="E145" t="s">
+        <v>203</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>2552670</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>929</v>
+      </c>
+      <c r="B146">
+        <v>2552670</v>
+      </c>
+      <c r="C146">
+        <v>85375207</v>
+      </c>
+      <c r="D146" t="s">
+        <v>201</v>
+      </c>
+      <c r="E146" t="s">
+        <v>204</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="I146">
+        <v>2552670</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>928</v>
+      </c>
+      <c r="B147">
+        <v>2552670</v>
+      </c>
+      <c r="C147">
+        <v>86793739</v>
+      </c>
+      <c r="D147" t="s">
+        <v>201</v>
+      </c>
+      <c r="E147" t="s">
+        <v>205</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>2552670</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>927</v>
+      </c>
+      <c r="B148">
+        <v>2552670</v>
+      </c>
+      <c r="C148">
+        <v>109512357</v>
+      </c>
+      <c r="D148" t="s">
+        <v>201</v>
+      </c>
+      <c r="E148" t="s">
+        <v>206</v>
+      </c>
+      <c r="F148">
+        <v>5</v>
+      </c>
+      <c r="I148">
+        <v>2552670</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>4</v>
+      </c>
+      <c r="B149">
+        <v>2586976</v>
+      </c>
+      <c r="C149">
+        <v>19672354</v>
+      </c>
+      <c r="D149" t="s">
+        <v>207</v>
+      </c>
+      <c r="E149" t="s">
+        <v>208</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>2586976</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>2586976</v>
+      </c>
+      <c r="C150">
+        <v>26771994</v>
+      </c>
+      <c r="D150" t="s">
+        <v>207</v>
+      </c>
+      <c r="E150" t="s">
+        <v>209</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="I150">
+        <v>2586976</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>2586976</v>
+      </c>
+      <c r="C151">
+        <v>41231571</v>
+      </c>
+      <c r="D151" t="s">
+        <v>207</v>
+      </c>
+      <c r="E151" t="s">
+        <v>210</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="I151">
+        <v>2586976</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>2586976</v>
+      </c>
+      <c r="C152">
+        <v>94155156</v>
+      </c>
+      <c r="D152" t="s">
+        <v>207</v>
+      </c>
+      <c r="E152" t="s">
+        <v>211</v>
+      </c>
+      <c r="F152">
+        <v>5</v>
+      </c>
+      <c r="I152">
+        <v>2586976</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>2586976</v>
+      </c>
+      <c r="C153">
+        <v>311360822</v>
+      </c>
+      <c r="D153" t="s">
+        <v>207</v>
+      </c>
+      <c r="E153" t="s">
+        <v>212</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>2586976</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>545</v>
+      </c>
+      <c r="B154">
+        <v>2626685</v>
+      </c>
+      <c r="C154">
+        <v>89246836</v>
+      </c>
+      <c r="D154" t="s">
+        <v>213</v>
+      </c>
+      <c r="E154" t="s">
+        <v>214</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="I154">
+        <v>2626685</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>546</v>
+      </c>
+      <c r="B155">
+        <v>2626685</v>
+      </c>
+      <c r="C155">
+        <v>114031486</v>
+      </c>
+      <c r="D155" t="s">
+        <v>213</v>
+      </c>
+      <c r="E155" t="s">
+        <v>215</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>2626685</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>548</v>
+      </c>
+      <c r="B156">
+        <v>2626685</v>
+      </c>
+      <c r="C156">
+        <v>117990312</v>
+      </c>
+      <c r="D156" t="s">
+        <v>213</v>
+      </c>
+      <c r="E156" t="s">
+        <v>216</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+      <c r="I156">
+        <v>2626685</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>547</v>
+      </c>
+      <c r="B157">
+        <v>2626685</v>
+      </c>
+      <c r="C157">
+        <v>158847773</v>
+      </c>
+      <c r="D157" t="s">
+        <v>213</v>
+      </c>
+      <c r="E157" t="s">
+        <v>217</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="I157">
+        <v>2626685</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>549</v>
+      </c>
+      <c r="B158">
+        <v>2626685</v>
+      </c>
+      <c r="C158">
+        <v>168028715</v>
+      </c>
+      <c r="D158" t="s">
+        <v>213</v>
+      </c>
+      <c r="E158" t="s">
+        <v>218</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>2626685</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>188</v>
+      </c>
+      <c r="B159">
+        <v>2640025</v>
+      </c>
+      <c r="C159">
+        <v>90892734</v>
+      </c>
+      <c r="D159" t="s">
+        <v>219</v>
+      </c>
+      <c r="E159" t="s">
+        <v>66</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+      <c r="I159">
+        <v>2640025</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>639</v>
+      </c>
+      <c r="B160">
+        <v>2640025</v>
+      </c>
+      <c r="C160">
+        <v>103039499</v>
+      </c>
+      <c r="D160" t="s">
+        <v>219</v>
+      </c>
+      <c r="E160" t="s">
+        <v>220</v>
+      </c>
+      <c r="F160">
+        <v>4</v>
+      </c>
+      <c r="I160">
+        <v>2640025</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>638</v>
+      </c>
+      <c r="B161">
+        <v>2640025</v>
+      </c>
+      <c r="C161">
+        <v>103940975</v>
+      </c>
+      <c r="D161" t="s">
+        <v>219</v>
+      </c>
+      <c r="E161" t="s">
+        <v>221</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="I161">
+        <v>2640025</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>187</v>
+      </c>
+      <c r="B162">
+        <v>2640025</v>
+      </c>
+      <c r="C162">
+        <v>111291593</v>
+      </c>
+      <c r="D162" t="s">
+        <v>219</v>
+      </c>
+      <c r="E162" t="s">
+        <v>222</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
+      </c>
+      <c r="I162">
+        <v>2640025</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>185</v>
+      </c>
+      <c r="B163">
+        <v>2640025</v>
+      </c>
+      <c r="C163">
+        <v>137193239</v>
+      </c>
+      <c r="D163" t="s">
+        <v>219</v>
+      </c>
+      <c r="E163" t="s">
+        <v>223</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>2640025</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>189</v>
+      </c>
+      <c r="B164">
+        <v>2640025</v>
+      </c>
+      <c r="C164">
+        <v>140153524</v>
+      </c>
+      <c r="D164" t="s">
+        <v>219</v>
+      </c>
+      <c r="E164" t="s">
+        <v>68</v>
+      </c>
+      <c r="F164">
+        <v>5</v>
+      </c>
+      <c r="I164">
+        <v>2640025</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>186</v>
+      </c>
+      <c r="B165">
+        <v>2640025</v>
+      </c>
+      <c r="C165">
+        <v>173880329</v>
+      </c>
+      <c r="D165" t="s">
+        <v>219</v>
+      </c>
+      <c r="E165" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="I165">
+        <v>2640025</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>9</v>
+      </c>
+      <c r="B166">
+        <v>2642171</v>
+      </c>
+      <c r="C166">
+        <v>27178898</v>
+      </c>
+      <c r="D166" t="s">
+        <v>224</v>
+      </c>
+      <c r="E166" t="s">
+        <v>225</v>
+      </c>
+      <c r="F166">
+        <v>3</v>
+      </c>
+      <c r="I166">
+        <v>2642171</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>8</v>
+      </c>
+      <c r="B167">
+        <v>2642171</v>
+      </c>
+      <c r="C167">
+        <v>86953414</v>
+      </c>
+      <c r="D167" t="s">
+        <v>224</v>
+      </c>
+      <c r="E167" t="s">
+        <v>226</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
+      </c>
+      <c r="I167">
+        <v>2642171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>5</v>
+      </c>
+      <c r="B168">
+        <v>2642171</v>
+      </c>
+      <c r="C168">
+        <v>92949094</v>
+      </c>
+      <c r="D168" t="s">
+        <v>224</v>
+      </c>
+      <c r="E168" t="s">
+        <v>227</v>
+      </c>
+      <c r="F168">
+        <v>5</v>
+      </c>
+      <c r="I168">
+        <v>2642171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>6</v>
+      </c>
+      <c r="B169">
+        <v>2642171</v>
+      </c>
+      <c r="C169">
+        <v>95430068</v>
+      </c>
+      <c r="D169" t="s">
+        <v>224</v>
+      </c>
+      <c r="E169" t="s">
+        <v>228</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>2642171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170">
+        <v>2642171</v>
+      </c>
+      <c r="C170">
+        <v>107855479</v>
+      </c>
+      <c r="D170" t="s">
+        <v>224</v>
+      </c>
+      <c r="E170" t="s">
+        <v>229</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>2642171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>137</v>
+      </c>
+      <c r="B171">
+        <v>2659468</v>
+      </c>
+      <c r="C171">
+        <v>94296097</v>
+      </c>
+      <c r="D171" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" t="s">
+        <v>230</v>
+      </c>
+      <c r="F171">
+        <v>5</v>
+      </c>
+      <c r="I171">
+        <v>2659468</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>138</v>
+      </c>
+      <c r="B172">
+        <v>2659468</v>
+      </c>
+      <c r="C172">
+        <v>101525357</v>
+      </c>
+      <c r="D172" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" t="s">
+        <v>231</v>
+      </c>
+      <c r="F172">
+        <v>3</v>
+      </c>
+      <c r="I172">
+        <v>2659468</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>139</v>
+      </c>
+      <c r="B173">
+        <v>2659468</v>
+      </c>
+      <c r="C173">
+        <v>113457795</v>
+      </c>
+      <c r="D173" t="s">
+        <v>24</v>
+      </c>
+      <c r="E173" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="I173">
+        <v>2659468</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>135</v>
+      </c>
+      <c r="B174">
+        <v>2659468</v>
+      </c>
+      <c r="C174">
+        <v>119576842</v>
+      </c>
+      <c r="D174" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174" t="s">
+        <v>232</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
+      </c>
+      <c r="I174">
+        <v>2659468</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>136</v>
+      </c>
+      <c r="B175">
+        <v>2659468</v>
+      </c>
+      <c r="C175">
+        <v>126417273</v>
+      </c>
+      <c r="D175" t="s">
+        <v>24</v>
+      </c>
+      <c r="E175" t="s">
+        <v>233</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>2659468</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>659</v>
+      </c>
+      <c r="B176">
+        <v>2672298</v>
+      </c>
+      <c r="C176">
+        <v>95825708</v>
+      </c>
+      <c r="D176" t="s">
+        <v>234</v>
+      </c>
+      <c r="E176" t="s">
+        <v>235</v>
+      </c>
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="I176">
+        <v>2672298</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>658</v>
+      </c>
+      <c r="B177">
+        <v>2672298</v>
+      </c>
+      <c r="C177">
+        <v>99796146</v>
+      </c>
+      <c r="D177" t="s">
+        <v>234</v>
+      </c>
+      <c r="E177" t="s">
+        <v>236</v>
+      </c>
+      <c r="F177">
+        <v>5</v>
+      </c>
+      <c r="I177">
+        <v>2672298</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>655</v>
+      </c>
+      <c r="B178">
+        <v>2672298</v>
+      </c>
+      <c r="C178">
+        <v>119631156</v>
+      </c>
+      <c r="D178" t="s">
+        <v>234</v>
+      </c>
+      <c r="E178" t="s">
+        <v>237</v>
+      </c>
+      <c r="F178">
+        <v>4</v>
+      </c>
+      <c r="I178">
+        <v>2672298</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>1348</v>
+      </c>
+      <c r="B179">
+        <v>2672298</v>
+      </c>
+      <c r="C179">
+        <v>185202677</v>
+      </c>
+      <c r="D179" t="s">
+        <v>234</v>
+      </c>
+      <c r="I179">
+        <v>2672298</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>656</v>
+      </c>
+      <c r="B180">
+        <v>2672298</v>
+      </c>
+      <c r="C180">
+        <v>194521913</v>
+      </c>
+      <c r="D180" t="s">
+        <v>234</v>
+      </c>
+      <c r="E180" t="s">
+        <v>238</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>2672298</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>657</v>
+      </c>
+      <c r="B181">
+        <v>2672298</v>
+      </c>
+      <c r="C181">
+        <v>242697694</v>
+      </c>
+      <c r="D181" t="s">
+        <v>234</v>
+      </c>
+      <c r="E181" t="s">
+        <v>239</v>
+      </c>
+      <c r="F181">
+        <v>3</v>
+      </c>
+      <c r="I181">
+        <v>2672298</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>653</v>
+      </c>
+      <c r="B182">
+        <v>2677025</v>
+      </c>
+      <c r="C182">
+        <v>11929046</v>
+      </c>
+      <c r="D182" t="s">
+        <v>240</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+      <c r="I182">
+        <v>2677025</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>654</v>
+      </c>
+      <c r="B183">
+        <v>2677025</v>
+      </c>
+      <c r="C183">
+        <v>76173488</v>
+      </c>
+      <c r="D183" t="s">
+        <v>240</v>
+      </c>
+      <c r="E183" t="s">
+        <v>241</v>
+      </c>
+      <c r="F183">
+        <v>3</v>
+      </c>
+      <c r="I183">
+        <v>2677025</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>650</v>
+      </c>
+      <c r="B184">
+        <v>2677025</v>
+      </c>
+      <c r="C184">
+        <v>86974263</v>
+      </c>
+      <c r="D184" t="s">
+        <v>240</v>
+      </c>
+      <c r="E184" t="s">
+        <v>242</v>
+      </c>
+      <c r="F184">
+        <v>5</v>
+      </c>
+      <c r="I184">
+        <v>2677025</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>651</v>
+      </c>
+      <c r="B185">
+        <v>2677025</v>
+      </c>
+      <c r="C185">
+        <v>115141430</v>
+      </c>
+      <c r="D185" t="s">
+        <v>240</v>
+      </c>
+      <c r="E185">
+        <v>747</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="I185">
+        <v>2677025</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>652</v>
+      </c>
+      <c r="B186">
+        <v>2677025</v>
+      </c>
+      <c r="C186">
+        <v>170532209</v>
+      </c>
+      <c r="D186" t="s">
+        <v>240</v>
+      </c>
+      <c r="E186" t="s">
+        <v>243</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>2677025</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>954</v>
+      </c>
+      <c r="B187">
+        <v>2701329</v>
+      </c>
+      <c r="C187">
+        <v>40586005</v>
+      </c>
+      <c r="D187" t="s">
+        <v>244</v>
+      </c>
+      <c r="E187" t="s">
+        <v>245</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="I187">
+        <v>2701329</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>950</v>
+      </c>
+      <c r="B188">
+        <v>2701329</v>
+      </c>
+      <c r="C188">
+        <v>52191022</v>
+      </c>
+      <c r="D188" t="s">
+        <v>244</v>
+      </c>
+      <c r="E188" t="s">
+        <v>246</v>
+      </c>
+      <c r="F188">
+        <v>5</v>
+      </c>
+      <c r="I188">
+        <v>2701329</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>953</v>
+      </c>
+      <c r="B189">
+        <v>2701329</v>
+      </c>
+      <c r="C189">
+        <v>86715129</v>
+      </c>
+      <c r="D189" t="s">
+        <v>244</v>
+      </c>
+      <c r="E189" t="s">
+        <v>247</v>
+      </c>
+      <c r="F189">
+        <v>3</v>
+      </c>
+      <c r="I189">
+        <v>2701329</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>952</v>
+      </c>
+      <c r="B190">
+        <v>2701329</v>
+      </c>
+      <c r="C190">
+        <v>94364925</v>
+      </c>
+      <c r="D190" t="s">
+        <v>244</v>
+      </c>
+      <c r="E190" t="s">
+        <v>248</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>2701329</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>951</v>
+      </c>
+      <c r="B191">
+        <v>2701329</v>
+      </c>
+      <c r="C191">
+        <v>104275965</v>
+      </c>
+      <c r="D191" t="s">
+        <v>244</v>
+      </c>
+      <c r="E191" t="s">
+        <v>249</v>
+      </c>
+      <c r="F191">
+        <v>4</v>
+      </c>
+      <c r="I191">
+        <v>2701329</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1000</v>
+      </c>
+      <c r="B192">
+        <v>2783913</v>
+      </c>
+      <c r="C192">
+        <v>4281729</v>
+      </c>
+      <c r="D192" t="s">
+        <v>250</v>
+      </c>
+      <c r="E192" t="s">
+        <v>251</v>
+      </c>
+      <c r="F192">
+        <v>5</v>
+      </c>
+      <c r="I192">
+        <v>2783913</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1002</v>
+      </c>
+      <c r="B193">
+        <v>2783913</v>
+      </c>
+      <c r="C193">
+        <v>86738694</v>
+      </c>
+      <c r="D193" t="s">
+        <v>250</v>
+      </c>
+      <c r="E193" t="s">
+        <v>252</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="I193">
+        <v>2783913</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1003</v>
+      </c>
+      <c r="B194">
+        <v>2783913</v>
+      </c>
+      <c r="C194">
+        <v>89117038</v>
+      </c>
+      <c r="D194" t="s">
+        <v>250</v>
+      </c>
+      <c r="E194" t="s">
+        <v>253</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
+      </c>
+      <c r="I194">
+        <v>2783913</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1001</v>
+      </c>
+      <c r="B195">
+        <v>2783913</v>
+      </c>
+      <c r="C195">
+        <v>100317750</v>
+      </c>
+      <c r="D195" t="s">
+        <v>250</v>
+      </c>
+      <c r="E195" t="s">
+        <v>254</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>2783913</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1004</v>
+      </c>
+      <c r="B196">
+        <v>2783913</v>
+      </c>
+      <c r="C196">
+        <v>169025618</v>
+      </c>
+      <c r="D196" t="s">
+        <v>250</v>
+      </c>
+      <c r="E196" t="s">
+        <v>255</v>
+      </c>
+      <c r="F196">
+        <v>3</v>
+      </c>
+      <c r="I196">
+        <v>2783913</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1307</v>
+      </c>
+      <c r="B197">
+        <v>2860081</v>
+      </c>
+      <c r="C197">
+        <v>89166519</v>
+      </c>
+      <c r="D197" t="s">
+        <v>256</v>
+      </c>
+      <c r="E197" t="s">
+        <v>257</v>
+      </c>
+      <c r="F197">
+        <v>5</v>
+      </c>
+      <c r="I197">
+        <v>2860081</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1309</v>
+      </c>
+      <c r="B198">
+        <v>2860081</v>
+      </c>
+      <c r="C198">
+        <v>135656964</v>
+      </c>
+      <c r="D198" t="s">
+        <v>256</v>
+      </c>
+      <c r="E198" t="s">
+        <v>258</v>
+      </c>
+      <c r="F198">
+        <v>3</v>
+      </c>
+      <c r="I198">
+        <v>2860081</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>1308</v>
+      </c>
+      <c r="B199">
+        <v>2860081</v>
+      </c>
+      <c r="C199">
+        <v>139174891</v>
+      </c>
+      <c r="D199" t="s">
+        <v>256</v>
+      </c>
+      <c r="E199">
+        <v>897</v>
+      </c>
+      <c r="F199">
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>2860081</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>1305</v>
+      </c>
+      <c r="B200">
+        <v>2860081</v>
+      </c>
+      <c r="C200">
+        <v>157475523</v>
+      </c>
+      <c r="D200" t="s">
+        <v>256</v>
+      </c>
+      <c r="E200" t="s">
+        <v>259</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="I200">
+        <v>2860081</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>1306</v>
+      </c>
+      <c r="B201">
+        <v>2860081</v>
+      </c>
+      <c r="C201">
+        <v>173812218</v>
+      </c>
+      <c r="D201" t="s">
+        <v>256</v>
+      </c>
+      <c r="E201" t="s">
+        <v>260</v>
+      </c>
+      <c r="F201">
+        <v>5</v>
+      </c>
+      <c r="I201">
+        <v>2860081</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>1271</v>
+      </c>
+      <c r="B202">
+        <v>2880140</v>
+      </c>
+      <c r="C202">
+        <v>59273184</v>
+      </c>
+      <c r="D202" t="s">
+        <v>261</v>
+      </c>
+      <c r="E202" t="s">
+        <v>262</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="I202">
+        <v>2880140</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>1274</v>
+      </c>
+      <c r="B203">
+        <v>2880140</v>
+      </c>
+      <c r="C203">
+        <v>86780673</v>
+      </c>
+      <c r="D203" t="s">
+        <v>261</v>
+      </c>
+      <c r="E203" t="s">
+        <v>263</v>
+      </c>
+      <c r="F203">
+        <v>3</v>
+      </c>
+      <c r="I203">
+        <v>2880140</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>1272</v>
+      </c>
+      <c r="B204">
+        <v>2880140</v>
+      </c>
+      <c r="C204">
+        <v>93844612</v>
+      </c>
+      <c r="D204" t="s">
+        <v>261</v>
+      </c>
+      <c r="E204" t="s">
+        <v>264</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>2880140</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>1270</v>
+      </c>
+      <c r="B205">
+        <v>2880140</v>
+      </c>
+      <c r="C205">
+        <v>108939324</v>
+      </c>
+      <c r="D205" t="s">
+        <v>261</v>
+      </c>
+      <c r="E205" t="s">
+        <v>263</v>
+      </c>
+      <c r="F205">
+        <v>3</v>
+      </c>
+      <c r="I205">
+        <v>2880140</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1273</v>
+      </c>
+      <c r="B206">
+        <v>2880140</v>
+      </c>
+      <c r="C206">
+        <v>144335589</v>
+      </c>
+      <c r="D206" t="s">
+        <v>261</v>
+      </c>
+      <c r="E206" t="s">
+        <v>265</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>2880140</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>118</v>
+      </c>
+      <c r="B207">
+        <v>3214108</v>
+      </c>
+      <c r="C207">
+        <v>40547474</v>
+      </c>
+      <c r="D207" t="s">
+        <v>266</v>
+      </c>
+      <c r="E207" t="s">
+        <v>267</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>3214108</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>115</v>
+      </c>
+      <c r="B208">
+        <v>3214108</v>
+      </c>
+      <c r="C208">
+        <v>43276219</v>
+      </c>
+      <c r="D208" t="s">
+        <v>266</v>
+      </c>
+      <c r="E208" t="s">
+        <v>268</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+      <c r="I208">
+        <v>3214108</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>119</v>
+      </c>
+      <c r="B209">
+        <v>3214108</v>
+      </c>
+      <c r="C209">
+        <v>47434686</v>
+      </c>
+      <c r="D209" t="s">
+        <v>266</v>
+      </c>
+      <c r="E209" t="s">
+        <v>269</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="I209">
+        <v>3214108</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>116</v>
+      </c>
+      <c r="B210">
+        <v>3214108</v>
+      </c>
+      <c r="C210">
+        <v>86726887</v>
+      </c>
+      <c r="D210" t="s">
+        <v>266</v>
+      </c>
+      <c r="E210" t="s">
+        <v>270</v>
+      </c>
+      <c r="F210">
+        <v>3</v>
+      </c>
+      <c r="I210">
+        <v>3214108</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>117</v>
+      </c>
+      <c r="B211">
+        <v>3214108</v>
+      </c>
+      <c r="C211">
+        <v>87196890</v>
+      </c>
+      <c r="D211" t="s">
+        <v>266</v>
+      </c>
+      <c r="E211" t="s">
+        <v>271</v>
+      </c>
+      <c r="F211">
+        <v>5</v>
+      </c>
+      <c r="I211">
+        <v>3214108</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>838</v>
+      </c>
+      <c r="B212">
+        <v>3326126</v>
+      </c>
+      <c r="C212">
+        <v>80929738</v>
+      </c>
+      <c r="D212" t="s">
+        <v>272</v>
+      </c>
+      <c r="E212" t="s">
+        <v>273</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>3326126</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>835</v>
+      </c>
+      <c r="B213">
+        <v>3326126</v>
+      </c>
+      <c r="C213">
+        <v>91698091</v>
+      </c>
+      <c r="D213" t="s">
+        <v>272</v>
+      </c>
+      <c r="E213" t="s">
+        <v>274</v>
+      </c>
+      <c r="F213">
+        <v>3</v>
+      </c>
+      <c r="I213">
+        <v>3326126</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>837</v>
+      </c>
+      <c r="B214">
+        <v>3326126</v>
+      </c>
+      <c r="C214">
+        <v>113800818</v>
+      </c>
+      <c r="D214" t="s">
+        <v>272</v>
+      </c>
+      <c r="E214" t="s">
+        <v>275</v>
+      </c>
+      <c r="F214">
+        <v>4</v>
+      </c>
+      <c r="I214">
+        <v>3326126</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>839</v>
+      </c>
+      <c r="B215">
+        <v>3326126</v>
+      </c>
+      <c r="C215">
+        <v>130416036</v>
+      </c>
+      <c r="D215" t="s">
+        <v>272</v>
+      </c>
+      <c r="E215" t="s">
+        <v>276</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>3326126</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>836</v>
+      </c>
+      <c r="B216">
+        <v>3326126</v>
+      </c>
+      <c r="C216">
+        <v>135384059</v>
+      </c>
+      <c r="D216" t="s">
+        <v>272</v>
+      </c>
+      <c r="E216" t="s">
+        <v>277</v>
+      </c>
+      <c r="F216">
+        <v>5</v>
+      </c>
+      <c r="I216">
+        <v>3326126</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>3326875</v>
+      </c>
+      <c r="C217">
+        <v>21289303</v>
+      </c>
+      <c r="D217" t="s">
+        <v>278</v>
+      </c>
+      <c r="E217" t="s">
+        <v>279</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>3326875</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>3326875</v>
+      </c>
+      <c r="C218">
+        <v>84772440</v>
+      </c>
+      <c r="D218" t="s">
+        <v>278</v>
+      </c>
+      <c r="E218" t="s">
+        <v>280</v>
+      </c>
+      <c r="F218">
+        <v>3</v>
+      </c>
+      <c r="I218">
+        <v>3326875</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>3326875</v>
+      </c>
+      <c r="C219">
+        <v>85417034</v>
+      </c>
+      <c r="D219" t="s">
+        <v>278</v>
+      </c>
+      <c r="E219" t="s">
+        <v>281</v>
+      </c>
+      <c r="F219">
+        <v>4</v>
+      </c>
+      <c r="I219">
+        <v>3326875</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>217</v>
+      </c>
+      <c r="B220">
+        <v>3326875</v>
+      </c>
+      <c r="C220">
+        <v>89603649</v>
+      </c>
+      <c r="D220" t="s">
+        <v>278</v>
+      </c>
+      <c r="E220" t="s">
+        <v>282</v>
+      </c>
+      <c r="F220">
+        <v>5</v>
+      </c>
+      <c r="I220">
+        <v>3326875</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>215</v>
+      </c>
+      <c r="B221">
+        <v>3326875</v>
+      </c>
+      <c r="C221">
+        <v>100471531</v>
+      </c>
+      <c r="D221" t="s">
+        <v>278</v>
+      </c>
+      <c r="E221" t="s">
+        <v>283</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="I221">
+        <v>3326875</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>86</v>
+      </c>
+      <c r="B222">
+        <v>3331948</v>
+      </c>
+      <c r="C222">
+        <v>90882159</v>
+      </c>
+      <c r="D222" t="s">
+        <v>284</v>
+      </c>
+      <c r="E222" t="s">
+        <v>285</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>3331948</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>87</v>
+      </c>
+      <c r="B223">
+        <v>3331948</v>
+      </c>
+      <c r="C223">
+        <v>98878010</v>
+      </c>
+      <c r="D223" t="s">
+        <v>284</v>
+      </c>
+      <c r="E223" t="s">
+        <v>286</v>
+      </c>
+      <c r="F223">
+        <v>3</v>
+      </c>
+      <c r="I223">
+        <v>3331948</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>85</v>
+      </c>
+      <c r="B224">
+        <v>3331948</v>
+      </c>
+      <c r="C224">
+        <v>98887913</v>
+      </c>
+      <c r="D224" t="s">
+        <v>284</v>
+      </c>
+      <c r="E224" t="s">
+        <v>287</v>
+      </c>
+      <c r="F224">
+        <v>4</v>
+      </c>
+      <c r="I224">
+        <v>3331948</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>88</v>
+      </c>
+      <c r="B225">
+        <v>3331948</v>
+      </c>
+      <c r="C225">
+        <v>114239371</v>
+      </c>
+      <c r="D225" t="s">
+        <v>284</v>
+      </c>
+      <c r="E225" t="s">
+        <v>113</v>
+      </c>
+      <c r="F225">
+        <v>5</v>
+      </c>
+      <c r="I225">
+        <v>3331948</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>585</v>
+      </c>
+      <c r="B226">
+        <v>3331948</v>
+      </c>
+      <c r="C226">
+        <v>136186119</v>
+      </c>
+      <c r="D226" t="s">
+        <v>284</v>
+      </c>
+      <c r="E226" t="s">
+        <v>288</v>
+      </c>
+      <c r="F226">
+        <v>5</v>
+      </c>
+      <c r="I226">
+        <v>3331948</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>89</v>
+      </c>
+      <c r="B227">
+        <v>3331948</v>
+      </c>
+      <c r="C227">
+        <v>139280377</v>
+      </c>
+      <c r="D227" t="s">
+        <v>284</v>
+      </c>
+      <c r="E227" t="s">
+        <v>114</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>3331948</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>588</v>
+      </c>
+      <c r="B228">
+        <v>3331948</v>
+      </c>
+      <c r="C228">
+        <v>148215639</v>
+      </c>
+      <c r="D228" t="s">
+        <v>284</v>
+      </c>
+      <c r="E228" t="s">
+        <v>289</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>3331948</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D229" t="s">
+        <v>26</v>
+      </c>
+      <c r="E229" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D230" t="s">
+        <v>26</v>
+      </c>
+      <c r="E230" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D231" t="s">
+        <v>26</v>
+      </c>
+      <c r="E231" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D232" t="s">
+        <v>26</v>
+      </c>
+      <c r="E232" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D233" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D234" t="s">
+        <v>294</v>
+      </c>
+      <c r="E234" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D235" t="s">
+        <v>294</v>
+      </c>
+      <c r="E235" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D236" t="s">
+        <v>294</v>
+      </c>
+      <c r="E236" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D237" t="s">
+        <v>294</v>
+      </c>
+      <c r="E237" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D238" t="s">
+        <v>294</v>
+      </c>
+      <c r="E238" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D239" t="s">
+        <v>300</v>
+      </c>
+      <c r="E239" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D240" t="s">
+        <v>300</v>
+      </c>
+      <c r="E240" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="241" spans="4:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D241" t="s">
+        <v>300</v>
+      </c>
+      <c r="E241" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D242" t="s">
+        <v>300</v>
+      </c>
+      <c r="E242" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="243" spans="4:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D243" t="s">
+        <v>300</v>
+      </c>
+      <c r="E243" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A140"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
